--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-21.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-21.xlsx
@@ -3076,11 +3076,17 @@
     <xf numFmtId="176" fontId="43" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="43" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3092,12 +3098,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -21970,7 +21970,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21990,7 +21990,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22027,7 +22027,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22047,7 +22047,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22082,7 +22082,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22102,7 +22102,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22139,7 +22139,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22159,7 +22159,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22194,7 +22194,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22214,7 +22214,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22251,7 +22251,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22271,7 +22271,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22306,7 +22306,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22326,7 +22326,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22363,7 +22363,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22383,7 +22383,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22418,7 +22418,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22438,7 +22438,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22475,7 +22475,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22495,7 +22495,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22530,7 +22530,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22550,7 +22550,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22587,7 +22587,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22607,7 +22607,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22642,7 +22642,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22662,7 +22662,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22699,7 +22699,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22719,7 +22719,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22754,7 +22754,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22774,7 +22774,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22811,7 +22811,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22831,7 +22831,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22866,7 +22866,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22886,7 +22886,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22923,7 +22923,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22943,7 +22943,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22978,7 +22978,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22998,7 +22998,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23035,7 +23035,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23055,7 +23055,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23090,7 +23090,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23110,7 +23110,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23147,7 +23147,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23167,7 +23167,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45178,7 +45178,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45198,7 +45198,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45235,7 +45235,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45255,7 +45255,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45290,7 +45290,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45310,7 +45310,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45347,7 +45347,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45367,7 +45367,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45402,7 +45402,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45422,7 +45422,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45459,7 +45459,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45479,7 +45479,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45514,7 +45514,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45534,7 +45534,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45571,7 +45571,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45591,7 +45591,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45626,7 +45626,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45646,7 +45646,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45683,7 +45683,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45703,7 +45703,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45738,7 +45738,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45758,7 +45758,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45795,7 +45795,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45815,7 +45815,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45850,7 +45850,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45870,7 +45870,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45907,7 +45907,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45927,7 +45927,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45962,7 +45962,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45982,7 +45982,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46019,7 +46019,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46039,7 +46039,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46074,7 +46074,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46094,7 +46094,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46131,7 +46131,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46151,7 +46151,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46186,7 +46186,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46206,7 +46206,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46243,7 +46243,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46263,7 +46263,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46298,7 +46298,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46318,7 +46318,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46355,7 +46355,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46375,7 +46375,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -57438,6 +57438,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId742" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1298" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1299" name="Picture 2" descr="cid:92b8d26413">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId743" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId744" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -57748,10 +57830,10 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -57804,10 +57886,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -57818,19 +57900,19 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="15">
         <f>SUM(E4:E42)</f>
-        <v>13395964.768300006</v>
+        <v>13396520.324000007</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>1331388.5909</v>
+        <v>1331944.1466000001</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G42)</f>
@@ -57838,37 +57920,37 @@
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>9.9387286688792802</v>
+        <v>9.9424635232614005</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I42)</f>
-        <v>13395968.770471532</v>
+        <v>13395072.186027087</v>
       </c>
       <c r="J3" s="21">
         <f>SUM(J4:J42)</f>
-        <v>12064576.186666772</v>
+        <v>12063189.396666773</v>
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-4.0021715257316828</v>
+        <v>1448.1379729192704</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>-9.2667713761329651E-3</v>
+        <v>1386.7807332277298</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="68">
+      <c r="A4" s="70">
         <f>RA!A8</f>
         <v>42542</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
         <v>453985.20079999999</v>
@@ -57903,14 +57985,14 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="68"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
         <v>46585.179700000001</v>
@@ -57946,14 +58028,14 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="68"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
         <v>80977.438599999994</v>
@@ -57989,14 +58071,14 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
         <v>62513.4931</v>
@@ -58032,14 +58114,14 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
         <v>194525.86309999999</v>
@@ -58075,14 +58157,14 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
         <v>201008.88440000001</v>
@@ -58118,14 +58200,14 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="68"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
         <v>116804.5903</v>
@@ -58161,14 +58243,14 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
         <v>80964.365999999995</v>
@@ -58204,14 +58286,14 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="68"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
         <v>772729.3162</v>
@@ -58247,14 +58329,14 @@
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
         <v>405963.77630000003</v>
@@ -58290,14 +58372,14 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="68"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
         <v>1188595.4746000001</v>
@@ -58333,14 +58415,14 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
         <v>326032.59840000002</v>
@@ -58376,14 +58458,14 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="68"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
         <v>821073.9192</v>
@@ -58419,14 +58501,14 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
         <v>245442.12599999999</v>
@@ -58462,14 +58544,14 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="68"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
         <v>1091824.5393999999</v>
@@ -58505,14 +58587,14 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
         <v>2159882.5918000001</v>
@@ -58548,14 +58630,14 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="68"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="66"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
         <v>193787.95120000001</v>
@@ -58591,14 +58673,14 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
         <v>210050.08489999999</v>
@@ -58634,14 +58716,14 @@
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="68"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
         <v>579403.57070000004</v>
@@ -58677,14 +58759,14 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
         <v>141964.36379999999</v>
@@ -58720,14 +58802,14 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="68"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
         <v>692789.32350000006</v>
@@ -58763,14 +58845,14 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
         <v>474502.80219999998</v>
@@ -58806,14 +58888,14 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
         <v>888823.01509999996</v>
@@ -58849,14 +58931,14 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
         <v>585915.63049999997</v>
@@ -58892,14 +58974,14 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="66"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
         <v>77275.234200000006</v>
@@ -58935,14 +59017,14 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="68"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -58978,14 +59060,14 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="68"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="66"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
         <v>113513.84269999999</v>
@@ -59021,7 +59103,7 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="36" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="68"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="12">
         <v>43</v>
       </c>
@@ -59063,14 +59145,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A32" s="68"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="12">
         <v>70</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
         <v>65419.73</v>
@@ -59089,30 +59171,30 @@
       </c>
       <c r="I32" s="20">
         <f>VLOOKUP(B32,RMS!B:D,3,FALSE)</f>
-        <v>65419.73</v>
+        <v>63967.59</v>
       </c>
       <c r="J32" s="21">
         <f>VLOOKUP(B32,RMS!B:E,4,FALSE)</f>
-        <v>71666.94</v>
+        <v>70280.149999999994</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1452.1400000000067</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1386.7900000000081</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="68"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="12">
         <v>71</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="66"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D61,3,0)</f>
         <v>74769.289999999994</v>
@@ -59148,14 +59230,14 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="68"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="12">
         <v>72</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="66"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D62,3,0)</f>
         <v>412620.49</v>
@@ -59191,14 +59273,14 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="68"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="12">
         <v>73</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="66"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B34:D63,3,0)</f>
         <v>116861.72</v>
@@ -59234,14 +59316,14 @@
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" s="35" customFormat="1">
-      <c r="A36" s="68"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="12">
         <v>74</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="66"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B35:D64,3,0)</f>
         <v>0</v>
@@ -59276,14 +59358,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A37" s="68"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="12">
         <v>75</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="66"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D64,3,0)</f>
         <v>16927.3583</v>
@@ -59319,21 +59401,21 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="68"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="12">
         <v>76</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B8:D65,3,0)</f>
-        <v>450450.45819999999</v>
+        <v>451006.01390000002</v>
       </c>
       <c r="F38" s="25">
         <f>VLOOKUP(C38,RA!B8:I69,8,0)</f>
-        <v>25562.157500000001</v>
+        <v>26117.713199999998</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
@@ -59345,7 +59427,7 @@
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
-        <v>450450.45184871799</v>
+        <v>451006.00740427303</v>
       </c>
       <c r="J38" s="21">
         <f>VLOOKUP(B38,RMS!B:E,4,FALSE)</f>
@@ -59353,7 +59435,7 @@
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>6.3512820051982999E-3</v>
+        <v>6.4957269933074713E-3</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
@@ -59362,14 +59444,14 @@
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="68"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="12">
         <v>77</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="66"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B9:D66,3,0)</f>
         <v>30885.51</v>
@@ -59405,14 +59487,14 @@
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="68"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="12">
         <v>78</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B10:D67,3,0)</f>
         <v>9021.3799999999992</v>
@@ -59448,14 +59530,14 @@
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" s="36" customFormat="1">
-      <c r="A41" s="68"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="12">
         <v>9101</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -59490,14 +59572,14 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="68"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="12">
         <v>99</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="66"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="15">
         <f>VLOOKUP(C42,RA!B8:D68,3,0)</f>
         <v>7748.0749999999998</v>
@@ -59534,31 +59616,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -59575,6 +59632,31 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -59808,25 +59890,25 @@
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
       <c r="D7" s="53">
-        <v>13395964.768300001</v>
+        <v>13396520.323999999</v>
       </c>
       <c r="E7" s="53">
         <v>15386037.6818</v>
       </c>
       <c r="F7" s="54">
-        <v>87.065721827432895</v>
+        <v>87.069332605668905</v>
       </c>
       <c r="G7" s="53">
         <v>20243312.151099999</v>
       </c>
       <c r="H7" s="54">
-        <v>-33.825232411030797</v>
+        <v>-33.822488019718499</v>
       </c>
       <c r="I7" s="53">
-        <v>1331388.5909</v>
+        <v>1331944.1466000001</v>
       </c>
       <c r="J7" s="54">
-        <v>9.9387286688792802</v>
+        <v>9.9424635232614005</v>
       </c>
       <c r="K7" s="53">
         <v>1569579.6325000001</v>
@@ -59835,13 +59917,13 @@
         <v>7.7535712574323501</v>
       </c>
       <c r="M7" s="54">
-        <v>-0.15175467154897601</v>
+        <v>-0.151400719644596</v>
       </c>
       <c r="N7" s="53">
-        <v>392928742.13999999</v>
+        <v>392929297.69569999</v>
       </c>
       <c r="O7" s="53">
-        <v>3840421477.9277</v>
+        <v>3840422033.4833999</v>
       </c>
       <c r="P7" s="53">
         <v>761104</v>
@@ -59853,23 +59935,23 @@
         <v>-1.7151653051579001</v>
       </c>
       <c r="S7" s="53">
-        <v>17.600702096296999</v>
+        <v>17.601432030313902</v>
       </c>
       <c r="T7" s="53">
         <v>17.352133045406301</v>
       </c>
       <c r="U7" s="55">
-        <v>1.4122678148330701</v>
+        <v>1.4163562628211099</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" thickBot="1">
       <c r="A8" s="81">
         <v>42542</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="56">
         <v>453985.20079999999</v>
       </c>
@@ -59927,10 +60009,10 @@
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="56">
         <v>46585.179700000001</v>
       </c>
@@ -59988,10 +60070,10 @@
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="56">
         <v>80977.438599999994</v>
       </c>
@@ -60049,10 +60131,10 @@
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="56">
         <v>62513.4931</v>
       </c>
@@ -60110,10 +60192,10 @@
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="56">
         <v>194525.86309999999</v>
       </c>
@@ -60171,10 +60253,10 @@
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
       <c r="A13" s="82"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="56">
         <v>201008.88440000001</v>
       </c>
@@ -60232,10 +60314,10 @@
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
       <c r="A14" s="82"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="56">
         <v>116804.5903</v>
       </c>
@@ -60293,10 +60375,10 @@
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
       <c r="A15" s="82"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="56">
         <v>80964.365999999995</v>
       </c>
@@ -60354,10 +60436,10 @@
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
       <c r="A16" s="82"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="56">
         <v>772729.3162</v>
       </c>
@@ -60415,10 +60497,10 @@
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
       <c r="A17" s="82"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="56">
         <v>405963.77630000003</v>
       </c>
@@ -60476,10 +60558,10 @@
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="82"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="56">
         <v>1188595.4746000001</v>
       </c>
@@ -60537,10 +60619,10 @@
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A19" s="82"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="56">
         <v>326032.59840000002</v>
       </c>
@@ -60598,10 +60680,10 @@
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
       <c r="A20" s="82"/>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="56">
         <v>821073.9192</v>
       </c>
@@ -60659,10 +60741,10 @@
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="82"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="56">
         <v>245442.12599999999</v>
       </c>
@@ -60720,10 +60802,10 @@
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A22" s="82"/>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="56">
         <v>1091824.5393999999</v>
       </c>
@@ -60781,10 +60863,10 @@
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
       <c r="A23" s="82"/>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="56">
         <v>2159882.5918000001</v>
       </c>
@@ -60842,10 +60924,10 @@
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="82"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="56">
         <v>193787.95120000001</v>
       </c>
@@ -60903,10 +60985,10 @@
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="82"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="56">
         <v>210050.08489999999</v>
       </c>
@@ -60964,10 +61046,10 @@
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
       <c r="A26" s="82"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="56">
         <v>579403.57070000004</v>
       </c>
@@ -61025,10 +61107,10 @@
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
       <c r="A27" s="82"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="56">
         <v>141964.36379999999</v>
       </c>
@@ -61086,10 +61168,10 @@
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
       <c r="A28" s="82"/>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="56">
         <v>692789.32350000006</v>
       </c>
@@ -61147,10 +61229,10 @@
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
       <c r="A29" s="82"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="56">
         <v>474502.80219999998</v>
       </c>
@@ -61208,10 +61290,10 @@
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
       <c r="A30" s="82"/>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="56">
         <v>888823.01509999996</v>
       </c>
@@ -61269,10 +61351,10 @@
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
       <c r="A31" s="82"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="56">
         <v>585915.63049999997</v>
       </c>
@@ -61330,10 +61412,10 @@
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
       <c r="A32" s="82"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="56">
         <v>77275.234200000006</v>
       </c>
@@ -61391,10 +61473,10 @@
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
       <c r="A33" s="82"/>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -61420,10 +61502,10 @@
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
       <c r="A34" s="82"/>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="56">
         <v>113513.84269999999</v>
       </c>
@@ -61481,10 +61563,10 @@
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="82"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="56">
         <v>4325.5801000000001</v>
       </c>
@@ -61528,10 +61610,10 @@
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="82"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="56">
         <v>65419.73</v>
       </c>
@@ -61585,10 +61667,10 @@
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
       <c r="A37" s="82"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="56">
         <v>74769.289999999994</v>
       </c>
@@ -61642,10 +61724,10 @@
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
       <c r="A38" s="82"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="56">
         <v>412620.49</v>
       </c>
@@ -61699,10 +61781,10 @@
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
       <c r="A39" s="82"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="56">
         <v>116861.72</v>
       </c>
@@ -61756,10 +61838,10 @@
     </row>
     <row r="40" spans="1:21" ht="12" thickBot="1">
       <c r="A40" s="82"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
@@ -61789,10 +61871,10 @@
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A41" s="82"/>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="56">
         <v>16927.3583</v>
       </c>
@@ -61846,30 +61928,30 @@
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
       <c r="A42" s="82"/>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="70"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="56">
-        <v>450450.45819999999</v>
+        <v>451006.01390000002</v>
       </c>
       <c r="E42" s="56">
         <v>1036080.2483</v>
       </c>
       <c r="F42" s="57">
-        <v>43.476406286009102</v>
+        <v>43.530027200114098</v>
       </c>
       <c r="G42" s="56">
         <v>669441.39729999995</v>
       </c>
       <c r="H42" s="57">
-        <v>-32.712488349725199</v>
+        <v>-32.629500398540699</v>
       </c>
       <c r="I42" s="56">
-        <v>25562.157500000001</v>
+        <v>26117.713199999998</v>
       </c>
       <c r="J42" s="57">
-        <v>5.6747988673707601</v>
+        <v>5.79099000790508</v>
       </c>
       <c r="K42" s="56">
         <v>38763.112300000001</v>
@@ -61878,13 +61960,13 @@
         <v>5.7903667828640302</v>
       </c>
       <c r="M42" s="57">
-        <v>-0.340554563777894</v>
+        <v>-0.32622249220169097</v>
       </c>
       <c r="N42" s="56">
-        <v>9083935.3291999996</v>
+        <v>9084490.8848999999</v>
       </c>
       <c r="O42" s="56">
-        <v>86175013.871700004</v>
+        <v>86175569.427399993</v>
       </c>
       <c r="P42" s="56">
         <v>2334</v>
@@ -61896,21 +61978,21 @@
         <v>7.2117593017914503</v>
       </c>
       <c r="S42" s="56">
-        <v>192.99505492716401</v>
+        <v>193.233082219366</v>
       </c>
       <c r="T42" s="56">
         <v>184.543975654571</v>
       </c>
       <c r="U42" s="58">
-        <v>4.3789097476008303</v>
+        <v>4.4966971830067601</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
       <c r="A43" s="82"/>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="70"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="56">
         <v>30885.51</v>
       </c>
@@ -61964,10 +62046,10 @@
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
       <c r="A44" s="82"/>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="56">
         <v>9021.3799999999992</v>
       </c>
@@ -62021,10 +62103,10 @@
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
       <c r="A45" s="82"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -62054,10 +62136,10 @@
     </row>
     <row r="46" spans="1:21" ht="12" thickBot="1">
       <c r="A46" s="83"/>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="61">
         <v>7748.0749999999998</v>
       </c>
@@ -62111,6 +62193,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
     <mergeCell ref="B6:C6"/>
@@ -62127,34 +62237,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62168,8 +62250,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -62947,7 +63029,7 @@
         <v>2538</v>
       </c>
       <c r="D30" s="37">
-        <v>450450.45184871799</v>
+        <v>451006.00740427303</v>
       </c>
       <c r="E30" s="37">
         <v>424888.29839487199</v>
@@ -63044,13 +63126,13 @@
         <v>70</v>
       </c>
       <c r="C34" s="34">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="34">
-        <v>65419.73</v>
+        <v>63967.59</v>
       </c>
       <c r="E34" s="34">
-        <v>71666.94</v>
+        <v>70280.149999999994</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>

--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-21.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-21.xlsx
@@ -3076,17 +3076,11 @@
     <xf numFmtId="176" fontId="43" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="43" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3098,6 +3092,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -21970,7 +21970,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21990,7 +21990,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22027,7 +22027,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22047,7 +22047,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22082,7 +22082,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22102,7 +22102,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22139,7 +22139,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22159,7 +22159,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22194,7 +22194,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22214,7 +22214,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22251,7 +22251,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22271,7 +22271,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22306,7 +22306,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22326,7 +22326,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22363,7 +22363,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22383,7 +22383,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22418,7 +22418,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22438,7 +22438,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22475,7 +22475,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22495,7 +22495,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22530,7 +22530,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22550,7 +22550,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22587,7 +22587,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22607,7 +22607,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22642,7 +22642,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22662,7 +22662,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22699,7 +22699,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22719,7 +22719,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22754,7 +22754,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22774,7 +22774,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22811,7 +22811,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22831,7 +22831,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22866,7 +22866,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22886,7 +22886,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22923,7 +22923,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22943,7 +22943,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22978,7 +22978,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22998,7 +22998,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23035,7 +23035,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23055,7 +23055,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23090,7 +23090,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23110,7 +23110,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23147,7 +23147,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23167,7 +23167,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45178,7 +45178,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45198,7 +45198,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45235,7 +45235,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45255,7 +45255,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45290,7 +45290,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45310,7 +45310,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45347,7 +45347,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45367,7 +45367,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45402,7 +45402,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45422,7 +45422,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45459,7 +45459,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45479,7 +45479,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45514,7 +45514,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45534,7 +45534,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45571,7 +45571,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45591,7 +45591,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45626,7 +45626,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45646,7 +45646,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45683,7 +45683,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45703,7 +45703,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45738,7 +45738,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45758,7 +45758,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45795,7 +45795,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45815,7 +45815,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45850,7 +45850,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45870,7 +45870,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45907,7 +45907,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45927,7 +45927,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45962,7 +45962,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45982,7 +45982,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46019,7 +46019,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46039,7 +46039,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46074,7 +46074,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46094,7 +46094,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46131,7 +46131,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46151,7 +46151,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46186,7 +46186,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46206,7 +46206,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46243,7 +46243,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46263,7 +46263,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46298,7 +46298,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46318,7 +46318,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46355,7 +46355,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46375,7 +46375,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -57520,6 +57520,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId744" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1300" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1301" name="Picture 2" descr="cid:bf53ec6e13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId745" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId746" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -57833,7 +57915,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -57886,10 +57968,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -57900,12 +57982,12 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="15">
         <f>SUM(E4:E42)</f>
         <v>13396520.324000007</v>
@@ -57924,33 +58006,33 @@
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I42)</f>
-        <v>13395072.186027087</v>
+        <v>13396524.326027088</v>
       </c>
       <c r="J3" s="21">
         <f>SUM(J4:J42)</f>
-        <v>12063189.396666773</v>
+        <v>12064576.186666772</v>
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>1448.1379729192704</v>
+        <v>-4.0020270813256502</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>1386.7807332277298</v>
+        <v>-9.2667713761329651E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="70">
+      <c r="A4" s="68">
         <f>RA!A8</f>
         <v>42542</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
         <v>453985.20079999999</v>
@@ -57985,14 +58067,14 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="70"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
         <v>46585.179700000001</v>
@@ -58028,14 +58110,14 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="70"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
         <v>80977.438599999994</v>
@@ -58071,14 +58153,14 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
         <v>62513.4931</v>
@@ -58114,14 +58196,14 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="70"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
         <v>194525.86309999999</v>
@@ -58157,14 +58239,14 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="70"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
         <v>201008.88440000001</v>
@@ -58200,14 +58282,14 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="70"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
         <v>116804.5903</v>
@@ -58243,14 +58325,14 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="70"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
         <v>80964.365999999995</v>
@@ -58286,14 +58368,14 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="70"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
         <v>772729.3162</v>
@@ -58329,14 +58411,14 @@
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="70"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
         <v>405963.77630000003</v>
@@ -58372,14 +58454,14 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="70"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
         <v>1188595.4746000001</v>
@@ -58415,14 +58497,14 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="70"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
         <v>326032.59840000002</v>
@@ -58458,14 +58540,14 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="70"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
         <v>821073.9192</v>
@@ -58501,14 +58583,14 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="70"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
         <v>245442.12599999999</v>
@@ -58544,14 +58626,14 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="70"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
         <v>1091824.5393999999</v>
@@ -58587,14 +58669,14 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="70"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
         <v>2159882.5918000001</v>
@@ -58630,14 +58712,14 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="70"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
         <v>193787.95120000001</v>
@@ -58673,14 +58755,14 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="70"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
         <v>210050.08489999999</v>
@@ -58716,14 +58798,14 @@
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="70"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
         <v>579403.57070000004</v>
@@ -58759,14 +58841,14 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="70"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
         <v>141964.36379999999</v>
@@ -58802,14 +58884,14 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="70"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
         <v>692789.32350000006</v>
@@ -58845,14 +58927,14 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="70"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
         <v>474502.80219999998</v>
@@ -58888,14 +58970,14 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="70"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
         <v>888823.01509999996</v>
@@ -58931,14 +59013,14 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="70"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
         <v>585915.63049999997</v>
@@ -58974,14 +59056,14 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="70"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
         <v>77275.234200000006</v>
@@ -59017,14 +59099,14 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="70"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -59060,14 +59142,14 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="70"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
         <v>113513.84269999999</v>
@@ -59103,7 +59185,7 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="36" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="70"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="12">
         <v>43</v>
       </c>
@@ -59145,14 +59227,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A32" s="70"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="12">
         <v>70</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
         <v>65419.73</v>
@@ -59171,30 +59253,30 @@
       </c>
       <c r="I32" s="20">
         <f>VLOOKUP(B32,RMS!B:D,3,FALSE)</f>
-        <v>63967.59</v>
+        <v>65419.73</v>
       </c>
       <c r="J32" s="21">
         <f>VLOOKUP(B32,RMS!B:E,4,FALSE)</f>
-        <v>70280.149999999994</v>
+        <v>71666.94</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="1"/>
-        <v>1452.1400000000067</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>1386.7900000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="70"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="12">
         <v>71</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D61,3,0)</f>
         <v>74769.289999999994</v>
@@ -59230,14 +59312,14 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="70"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="12">
         <v>72</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D62,3,0)</f>
         <v>412620.49</v>
@@ -59273,14 +59355,14 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="70"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="12">
         <v>73</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B34:D63,3,0)</f>
         <v>116861.72</v>
@@ -59316,14 +59398,14 @@
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" s="35" customFormat="1">
-      <c r="A36" s="70"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="12">
         <v>74</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B35:D64,3,0)</f>
         <v>0</v>
@@ -59358,14 +59440,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A37" s="70"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="12">
         <v>75</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D64,3,0)</f>
         <v>16927.3583</v>
@@ -59401,14 +59483,14 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="70"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="12">
         <v>76</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B8:D65,3,0)</f>
         <v>451006.01390000002</v>
@@ -59444,14 +59526,14 @@
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="70"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="12">
         <v>77</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B9:D66,3,0)</f>
         <v>30885.51</v>
@@ -59487,14 +59569,14 @@
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="70"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="12">
         <v>78</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B10:D67,3,0)</f>
         <v>9021.3799999999992</v>
@@ -59530,14 +59612,14 @@
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" s="36" customFormat="1">
-      <c r="A41" s="70"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="12">
         <v>9101</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="67"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -59572,14 +59654,14 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="70"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="12">
         <v>99</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="15">
         <f>VLOOKUP(C42,RA!B8:D68,3,0)</f>
         <v>7748.0749999999998</v>
@@ -59616,6 +59698,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -59632,31 +59739,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -59948,10 +60030,10 @@
       <c r="A8" s="81">
         <v>42542</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="56">
         <v>453985.20079999999</v>
       </c>
@@ -60009,10 +60091,10 @@
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="56">
         <v>46585.179700000001</v>
       </c>
@@ -60070,10 +60152,10 @@
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="56">
         <v>80977.438599999994</v>
       </c>
@@ -60131,10 +60213,10 @@
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="56">
         <v>62513.4931</v>
       </c>
@@ -60192,10 +60274,10 @@
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="56">
         <v>194525.86309999999</v>
       </c>
@@ -60253,10 +60335,10 @@
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
       <c r="A13" s="82"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="56">
         <v>201008.88440000001</v>
       </c>
@@ -60314,10 +60396,10 @@
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
       <c r="A14" s="82"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="56">
         <v>116804.5903</v>
       </c>
@@ -60375,10 +60457,10 @@
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
       <c r="A15" s="82"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="56">
         <v>80964.365999999995</v>
       </c>
@@ -60436,10 +60518,10 @@
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
       <c r="A16" s="82"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="56">
         <v>772729.3162</v>
       </c>
@@ -60497,10 +60579,10 @@
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
       <c r="A17" s="82"/>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="56">
         <v>405963.77630000003</v>
       </c>
@@ -60558,10 +60640,10 @@
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="82"/>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="56">
         <v>1188595.4746000001</v>
       </c>
@@ -60619,10 +60701,10 @@
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A19" s="82"/>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="56">
         <v>326032.59840000002</v>
       </c>
@@ -60680,10 +60762,10 @@
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
       <c r="A20" s="82"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="56">
         <v>821073.9192</v>
       </c>
@@ -60741,10 +60823,10 @@
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="82"/>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="56">
         <v>245442.12599999999</v>
       </c>
@@ -60802,10 +60884,10 @@
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A22" s="82"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="56">
         <v>1091824.5393999999</v>
       </c>
@@ -60863,10 +60945,10 @@
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
       <c r="A23" s="82"/>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="56">
         <v>2159882.5918000001</v>
       </c>
@@ -60924,10 +61006,10 @@
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="82"/>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="56">
         <v>193787.95120000001</v>
       </c>
@@ -60985,10 +61067,10 @@
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="82"/>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="56">
         <v>210050.08489999999</v>
       </c>
@@ -61046,10 +61128,10 @@
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
       <c r="A26" s="82"/>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="56">
         <v>579403.57070000004</v>
       </c>
@@ -61107,10 +61189,10 @@
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
       <c r="A27" s="82"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="56">
         <v>141964.36379999999</v>
       </c>
@@ -61168,10 +61250,10 @@
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
       <c r="A28" s="82"/>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="56">
         <v>692789.32350000006</v>
       </c>
@@ -61229,10 +61311,10 @@
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
       <c r="A29" s="82"/>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="56">
         <v>474502.80219999998</v>
       </c>
@@ -61290,10 +61372,10 @@
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
       <c r="A30" s="82"/>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="56">
         <v>888823.01509999996</v>
       </c>
@@ -61351,10 +61433,10 @@
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
       <c r="A31" s="82"/>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="56">
         <v>585915.63049999997</v>
       </c>
@@ -61412,10 +61494,10 @@
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
       <c r="A32" s="82"/>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="56">
         <v>77275.234200000006</v>
       </c>
@@ -61473,10 +61555,10 @@
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
       <c r="A33" s="82"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -61502,10 +61584,10 @@
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
       <c r="A34" s="82"/>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="56">
         <v>113513.84269999999</v>
       </c>
@@ -61563,10 +61645,10 @@
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="82"/>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="56">
         <v>4325.5801000000001</v>
       </c>
@@ -61610,10 +61692,10 @@
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="82"/>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="56">
         <v>65419.73</v>
       </c>
@@ -61667,10 +61749,10 @@
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
       <c r="A37" s="82"/>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="56">
         <v>74769.289999999994</v>
       </c>
@@ -61724,10 +61806,10 @@
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
       <c r="A38" s="82"/>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="56">
         <v>412620.49</v>
       </c>
@@ -61781,10 +61863,10 @@
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
       <c r="A39" s="82"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="56">
         <v>116861.72</v>
       </c>
@@ -61838,10 +61920,10 @@
     </row>
     <row r="40" spans="1:21" ht="12" thickBot="1">
       <c r="A40" s="82"/>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
@@ -61871,10 +61953,10 @@
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A41" s="82"/>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="56">
         <v>16927.3583</v>
       </c>
@@ -61928,10 +62010,10 @@
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
       <c r="A42" s="82"/>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="56">
         <v>451006.01390000002</v>
       </c>
@@ -61989,10 +62071,10 @@
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
       <c r="A43" s="82"/>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="56">
         <v>30885.51</v>
       </c>
@@ -62046,10 +62128,10 @@
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
       <c r="A44" s="82"/>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="56">
         <v>9021.3799999999992</v>
       </c>
@@ -62103,10 +62185,10 @@
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
       <c r="A45" s="82"/>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -62136,10 +62218,10 @@
     </row>
     <row r="46" spans="1:21" ht="12" thickBot="1">
       <c r="A46" s="83"/>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="61">
         <v>7748.0749999999998</v>
       </c>
@@ -62193,34 +62275,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
     <mergeCell ref="B6:C6"/>
@@ -62237,6 +62291,34 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62251,7 +62333,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:H31"/>
+      <selection activeCell="B34" sqref="B34:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -63126,13 +63208,13 @@
         <v>70</v>
       </c>
       <c r="C34" s="34">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="34">
-        <v>63967.59</v>
+        <v>65419.73</v>
       </c>
       <c r="E34" s="34">
-        <v>70280.149999999994</v>
+        <v>71666.94</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
